--- a/data/output/FV2504_FV2410/UTILMD/44021.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44021.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="324">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="324">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1090,6 +1090,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U156" totalsRowShown="0">
+  <autoFilter ref="A1:U156"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1379,7 +1409,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9022,5 +9055,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/44021.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44021.xlsx
@@ -1971,7 +1971,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4069,7 +4069,7 @@
         <v>304</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4289,7 +4289,7 @@
         <v>305</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4509,7 +4509,7 @@
         <v>306</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4729,7 +4729,7 @@
         <v>307</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4949,7 +4949,7 @@
         <v>308</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5115,7 +5115,7 @@
         <v>309</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5331,7 +5331,7 @@
         <v>310</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5731,7 +5731,7 @@
         <v>312</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5931,7 +5931,7 @@
         <v>313</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6077,7 +6077,7 @@
         <v>314</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6339,7 +6339,7 @@
         <v>316</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6601,7 +6601,7 @@
         <v>318</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6801,7 +6801,7 @@
         <v>304</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7001,7 +7001,7 @@
         <v>304</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7201,7 +7201,7 @@
         <v>319</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7513,7 +7513,7 @@
         <v>304</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7663,7 +7663,7 @@
         <v>304</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8099,7 +8099,7 @@
         <v>321</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9131,7 +9131,7 @@
         <v>323</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9443,7 +9443,7 @@
         <v>304</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N154" s="2"/>
